--- a/scenario/data.xlsx
+++ b/scenario/data.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="受限正态分布场景" sheetId="3" r:id="rId3"/>
+    <sheet name="多风电场景" sheetId="4" r:id="rId4"/>
+    <sheet name="风电场1" sheetId="5" r:id="rId5"/>
+    <sheet name="风电场2" sheetId="6" r:id="rId6"/>
+    <sheet name="风电场3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>预测值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +39,30 @@
   </si>
   <si>
     <t>计算点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测值1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测值2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测值3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算点3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,6 +148,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2467,11 +2496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="248894544"/>
-        <c:axId val="248911888"/>
+        <c:axId val="135917432"/>
+        <c:axId val="350826056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248894544"/>
+        <c:axId val="135917432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,7 +2542,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248911888"/>
+        <c:crossAx val="350826056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2521,7 +2550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248911888"/>
+        <c:axId val="350826056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,7 +2601,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248894544"/>
+        <c:crossAx val="135917432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2586,6 +2615,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5015,11 +5045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="248610360"/>
-        <c:axId val="3804360"/>
+        <c:axId val="351825472"/>
+        <c:axId val="326573568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248610360"/>
+        <c:axId val="351825472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5061,7 +5091,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3804360"/>
+        <c:crossAx val="326573568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5069,7 +5099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3804360"/>
+        <c:axId val="326573568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5120,7 +5150,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248610360"/>
+        <c:crossAx val="351825472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7564,11 +7594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79670224"/>
-        <c:axId val="79670608"/>
+        <c:axId val="350689712"/>
+        <c:axId val="351651784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79670224"/>
+        <c:axId val="350689712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7610,7 +7640,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79670608"/>
+        <c:crossAx val="351651784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7618,7 +7648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79670608"/>
+        <c:axId val="351651784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7669,7 +7699,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79670224"/>
+        <c:crossAx val="350689712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8031,11 +8061,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83954088"/>
-        <c:axId val="368982728"/>
+        <c:axId val="352116680"/>
+        <c:axId val="352117064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83954088"/>
+        <c:axId val="352116680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8077,7 +8107,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368982728"/>
+        <c:crossAx val="352117064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8085,7 +8115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368982728"/>
+        <c:axId val="352117064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8136,7 +8166,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83954088"/>
+        <c:crossAx val="352116680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10809,7 +10839,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12306,8 +12336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13811,8 +13841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1051" sqref="I1051"/>
+    <sheetView topLeftCell="L1028" workbookViewId="0">
+      <selection activeCell="A1032" sqref="A1032:X1051"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -90959,4 +90989,99 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>